--- a/output.xlsx
+++ b/output.xlsx
@@ -11,6 +11,9 @@
     <sheet name="1-Szyba" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="1-Klamka" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="1-Rama" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2-Gumowa uszczelka" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2-Profil aluminiowy" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2-Wspornik narożny" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,13 +475,13 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
@@ -493,12 +496,14 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -508,34 +513,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -564,7 +569,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -642,13 +647,13 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -677,34 +682,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -717,13 +722,19 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -734,13 +745,19 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -755,13 +772,19 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -828,7 +851,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -925,13 +948,13 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -960,34 +983,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1000,12 +1023,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -1018,12 +1041,12 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1038,12 +1061,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -1111,7 +1134,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1208,13 +1231,13 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -1243,19 +1266,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>14</v>
@@ -1264,13 +1287,13 @@
         <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1283,10 +1306,10 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1299,10 +1322,10 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1321,10 +1344,10 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>16</v>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1394,7 +1417,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1428,4 +1451,857 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tydzień</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Całkowite zapotrzebowanie</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Planowane przyjęcia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Przewidywane na stanie</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zapotrzebowanie netto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Planowane zamówienia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Planowane przyjęcie zamówień</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Czas realizacji</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Wielkość partii</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Poziom BOM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Na stanie</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ilość w gotowym produkcie</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tydzień</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Całkowite zapotrzebowanie</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Planowane przyjęcia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Przewidywane na stanie</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zapotrzebowanie netto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Planowane zamówienia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Planowane przyjęcie zamówień</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Czas realizacji</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Wielkość partii</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Poziom BOM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Na stanie</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ilość w gotowym produkcie</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tydzień</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Całkowite zapotrzebowanie</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Planowane przyjęcia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Przewidywane na stanie</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51</v>
+      </c>
+      <c r="E4" t="n">
+        <v>51</v>
+      </c>
+      <c r="F4" t="n">
+        <v>51</v>
+      </c>
+      <c r="G4" t="n">
+        <v>51</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51</v>
+      </c>
+      <c r="J4" t="n">
+        <v>51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zapotrzebowanie netto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Planowane zamówienia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Planowane przyjęcie zamówień</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Czas realizacji</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Wielkość partii</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>80</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Poziom BOM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Na stanie</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ilość w gotowym produkcie</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -513,34 +513,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -664,7 +664,9 @@
           <t>Planowane przyjęcia</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>36</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -682,34 +684,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -723,18 +725,10 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>15</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -746,18 +740,10 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -773,18 +759,10 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -851,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -965,7 +943,9 @@
           <t>Planowane przyjęcia</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -983,34 +963,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1026,9 +1006,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -1044,9 +1022,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>30</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1064,9 +1040,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -1134,7 +1108,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1248,7 +1222,9 @@
           <t>Planowane przyjęcia</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -1266,34 +1242,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1308,7 +1284,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -1417,7 +1393,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1529,7 +1505,9 @@
           <t>Planowane przyjęcia</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -1547,34 +1525,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1585,9 +1563,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>11</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1603,9 +1579,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1623,9 +1597,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>30</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1698,7 +1670,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1810,7 +1782,9 @@
           <t>Planowane przyjęcia</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -1828,34 +1802,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1867,13 +1841,13 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -1893,7 +1867,9 @@
       <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1932,7 +1908,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1989,7 +1965,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -2101,7 +2077,9 @@
           <t>Planowane przyjęcia</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -2119,34 +2097,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="K4" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -2158,7 +2136,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -2270,7 +2248,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
